--- a/Code/logs/bot_requests.xlsx
+++ b/Code/logs/bot_requests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2167,6 +2167,40 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-12-10 14:42:19</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>logging in using static token</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-12-10 14:42:22</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Shard ID None has connected to Gateway (Session ID: 46c8d45b8d41135fa7c29d9f456a8320).</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Code/logs/bot_requests.xlsx
+++ b/Code/logs/bot_requests.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1096,6 +1096,380 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-12-11 18:56:48</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>The voice handshake is being terminated for Channel ID 917623503740616720 (Guild ID 917623502239059978)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-12-12 10:40:02</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>logging in using static token</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-12-12 10:40:04</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Shard ID None has connected to Gateway (Session ID: 635cca648fd9b83f81d7792a8738c0d6).</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-12-12 11:00:01</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>User saechii got waifu: Marin Kitagawa from My Dress-Up Darling</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-12-12 11:05:43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Connecting to voice...</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-12-12 11:05:43</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Starting voice handshake... (connection attempt 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-12-12 11:05:44</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Voice handshake complete. Endpoint found: c-sin15-864da780.discord.media:2096</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-12-12 11:06:13</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Timed out connecting to voice</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-12-12 11:06:13</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>The voice handshake is being terminated for Channel ID 917623503740616720 (Guild ID 917623502239059978)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-12-12 11:06:13</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>The voice handshake is being terminated for Channel ID 917623503740616720 (Guild ID 917623502239059978)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-12-12 11:06:43</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ignoring exception in command join</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-12-12 11:17:54</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>User sinonmzc got waifu: Yor Forger from Spy x Family</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-12-12 11:18:03</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>User hoshizaqi got waifu: Sparkle from Honkai: Star Rail</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-12-12 11:34:24</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>User saechii got waifu: Saber Alter from Fate Series</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:40:44</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>User rubberdino got waifu: Sayu Ogiwara from Higehiro: After Being Rejected, I Shaved and Took in a High School Runaway</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-12-12 12:43:04</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Shard ID None has successfully RESUMED session 635cca648fd9b83f81d7792a8738c0d6.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-12-12 14:15:09</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Attempting a reconnect in 1.19s</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-12-12 14:15:11</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Shard ID None has successfully RESUMED session 635cca648fd9b83f81d7792a8738c0d6.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-12-12 14:25:30</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Attempting a reconnect in 0.94s</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-12-12 14:25:32</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Shard ID None has successfully RESUMED session 635cca648fd9b83f81d7792a8738c0d6.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-12-12 14:55:34</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Shard ID None has successfully RESUMED session 635cca648fd9b83f81d7792a8738c0d6.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-12-12 16:38:54</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Shard ID None has successfully RESUMED session 635cca648fd9b83f81d7792a8738c0d6.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
